--- a/_Lang_Korean/Lang/KR/Game/Person.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/Person.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">narrator</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.18</t>
+    <t xml:space="preserve">EA 23.23 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>

--- a/_Lang_Korean/Lang/KR/Game/Person.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/Person.xlsx
@@ -115,7 +115,7 @@
     <t xml:space="preserve">ファリス</t>
   </si>
   <si>
-    <t xml:space="preserve">올비나의 소리꾼</t>
+    <t xml:space="preserve">올비나의 노래꾼</t>
   </si>
   <si>
     <t xml:space="preserve">Talesinger of Olvina</t>
@@ -407,7 +407,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="나눔고딕"/>
@@ -430,12 +430,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -496,7 +490,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -526,12 +520,12 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E34" activeCellId="0" sqref="E34"/>
+      <selection pane="bottomLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.65625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.6484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="1" style="0" width="14.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="1" style="0" width="14.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/_Lang_Korean/Lang/KR/Game/Person.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/Person.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">narrator</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.25</t>
+    <t xml:space="preserve">EA 23.26 fix 2</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>
